--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>45267</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +587,19 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Boxwood</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>shrub</t>
+          <t>3gal</t>
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>10</v>
+        <v>10.99</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>50</v>
+        <v>54.95</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>0</v>
@@ -608,117 +608,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>th</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>deciduous tree</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>gg</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>deciduous tree</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="B11" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>gh</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>deciduous tree</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>DIRECT COST LABOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>DIRECT COST MATERIALS(Materials, Tax, Freight)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Billable Equipment Rate</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>DIRECT COST LABOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>DIRECT COST MATERIALS(Materials, Tax, Freight)</t>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL DIRECT COST</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>Billable Equipment Rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL DIRECT COST</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="9" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Enter Desired Mat Markup %</t>
         </is>
